--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>##</t>
   </si>
@@ -100,7 +100,16 @@
     <t>BattleUnit</t>
   </si>
   <si>
-    <t>BattleUnit.xlsx</t>
+    <t>战斗单位表@战斗单位表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TblBattleUnitSkill</t>
+  </si>
+  <si>
+    <t>BattleUnitSkill</t>
+  </si>
+  <si>
+    <t>战斗单位技能表@战斗单位表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -108,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,6 +138,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -136,8 +159,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,52 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,6 +224,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -230,37 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,175 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,21 +528,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -568,8 +562,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,148 +587,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,18 +1058,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="31.8392857142857" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
@@ -1165,6 +1174,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>##</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>战斗单位技能表@战斗单位表.xlsx</t>
+  </si>
+  <si>
+    <t>UI.TblUIForm</t>
+  </si>
+  <si>
+    <t>UIForm</t>
+  </si>
+  <si>
+    <t>界面资源表@界面资源表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -117,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,7 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +168,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -168,7 +184,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -198,11 +221,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -232,44 +262,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +306,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,163 +348,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +503,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -505,15 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,26 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,150 +571,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1058,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1188,6 +1197,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>##</t>
   </si>
@@ -115,10 +115,28 @@
     <t>UI.TblUIForm</t>
   </si>
   <si>
-    <t>UIForm</t>
-  </si>
-  <si>
-    <t>界面资源表@界面资源表.xlsx</t>
+    <t>UIFormRes</t>
+  </si>
+  <si>
+    <t>界面资源表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.TblEntity</t>
+  </si>
+  <si>
+    <t>EntityRes</t>
+  </si>
+  <si>
+    <t>实体资源表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.TblEffect</t>
+  </si>
+  <si>
+    <t>EffectRes</t>
+  </si>
+  <si>
+    <t>特效资源表@资源表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -126,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,6 +172,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -165,28 +199,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,15 +227,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +258,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,17 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,16 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,175 +324,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +525,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,170 +609,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1067,18 +1085,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="31.8392857142857" customWidth="1"/>
+    <col min="5" max="5" width="30.8035714285714" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
@@ -1211,6 +1229,34 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -144,8 +144,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -166,15 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +181,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,8 +210,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,36 +273,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -264,9 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,36 +304,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,49 +324,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,25 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,79 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,15 +509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,6 +530,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -546,6 +552,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,47 +601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,148 +614,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>##</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>特效资源表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Scene.TblScene</t>
+  </si>
+  <si>
+    <t>SceneRes</t>
+  </si>
+  <si>
+    <t>场景资源表@资源表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -144,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,6 +181,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -181,14 +212,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,55 +242,48 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,37 +305,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,175 +339,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +526,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,13 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,36 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -609,21 +607,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,130 +641,130 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1257,6 +1266,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>##</t>
   </si>
@@ -49,6 +49,9 @@
     <t>tags</t>
   </si>
   <si>
+    <t>output</t>
+  </si>
+  <si>
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>分支文件列表</t>
   </si>
   <si>
+    <t>输出文件名</t>
+  </si>
+  <si>
     <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>用于本地化。可以多个，以逗号分隔</t>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
     <t>Battle.TblBattleUnit</t>
@@ -153,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,16 +184,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,14 +220,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -218,16 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,9 +274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,45 +291,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,22 +320,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,19 +336,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,61 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,79 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,23 +539,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +579,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -580,6 +604,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,173 +633,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:11">
+    <row r="2" s="1" customFormat="1" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,138 +1161,147 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:10">
+    <row r="3" s="1" customFormat="1" spans="2:12">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="4:10">
+    <row r="4" s="1" customFormat="1" spans="4:12">
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>##</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>特效资源表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.TblGridMapEffect</t>
+  </si>
+  <si>
+    <t>GridMapEffectRes</t>
+  </si>
+  <si>
+    <t>网格地图特效资源表@资源表.xlsx</t>
   </si>
   <si>
     <t>Scene.TblScene</t>
@@ -162,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -191,6 +200,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -198,7 +222,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -214,14 +238,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,24 +259,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +292,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,53 +315,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,25 +351,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,157 +495,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -578,17 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +613,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,145 +647,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1109,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1304,6 +1313,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -200,22 +200,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,23 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,76 +270,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,31 +351,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,133 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,21 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -602,13 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,17 +617,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,145 +647,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1118,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1134,196 +1134,200 @@
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:12">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:12">
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="4:12">
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
         <v>49</v>
       </c>
     </row>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>##</t>
   </si>
@@ -103,22 +103,40 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Battle.TblBattleUnit</t>
+    <t>Battle.TblRole</t>
   </si>
   <si>
     <t>BattleUnit</t>
   </si>
   <si>
-    <t>战斗单位表@战斗单位表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TblBattleUnitSkill</t>
-  </si>
-  <si>
-    <t>BattleUnitSkill</t>
-  </si>
-  <si>
-    <t>战斗单位技能表@战斗单位表.xlsx</t>
+    <t>角色表@战斗表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TblTalent</t>
+  </si>
+  <si>
+    <t>Talent</t>
+  </si>
+  <si>
+    <t>天赋表@战斗表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TblSkill</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>技能表@战斗表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TblWeapon</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>武器表@战斗表.xlsx</t>
   </si>
   <si>
     <t>UI.TblUIForm</t>
@@ -171,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,24 +211,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,10 +224,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +263,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -252,9 +323,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,74 +353,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -351,181 +369,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,11 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,38 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,16 +612,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,153 +636,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,17 +1136,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="34.6696428571429" customWidth="1"/>
     <col min="5" max="5" width="30.8035714285714" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
@@ -1331,6 +1349,34 @@
         <v>49</v>
       </c>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,44 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>value_type</t>
+  </si>
+  <si>
+    <t>define_from_file</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>patch_input</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>value_type</t>
-  </si>
-  <si>
-    <t>define_from_excel</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>patch_input</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>可以多个，以逗号','分隔</t>
   </si>
   <si>
-    <t>为空的话自动取value_type中第一个字段</t>
-  </si>
-  <si>
-    <t>取值one|map，为空自动为one</t>
+    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+  </si>
+  <si>
+    <t>取值one|map|list，为空自动为one</t>
   </si>
   <si>
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -211,39 +214,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,61 +273,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,33 +351,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -369,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,50 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +592,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -641,7 +603,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,153 +637,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1142,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1192,189 +1195,189 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
